--- a/PS_scripts/TestBrugerJonstrup.xlsx
+++ b/PS_scripts/TestBrugerJonstrup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jebn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUFR_PowerShell\PS_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5">
-        <v>9999900</v>
+        <v>9999910</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>26</v>
@@ -465,7 +465,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="5">
-        <v>9999903</v>
+        <v>9999911</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>26</v>
@@ -485,7 +485,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="5">
-        <v>9999902</v>
+        <v>9999912</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>26</v>
@@ -505,7 +505,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="5">
-        <v>9999904</v>
+        <v>9999913</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>26</v>
@@ -525,7 +525,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="5">
-        <v>9999901</v>
+        <v>9999914</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>26</v>
@@ -545,7 +545,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="5">
-        <v>9999905</v>
+        <v>9999915</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>26</v>
@@ -565,7 +565,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="5">
-        <v>9999906</v>
+        <v>9999916</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>26</v>
@@ -585,7 +585,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="5">
-        <v>9999907</v>
+        <v>9999917</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>26</v>
@@ -597,7 +597,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E4:E10" r:id="rId2" display="test@mail.sletmig"/>
+    <hyperlink ref="E4:E9" r:id="rId2" display="test@mail.sletmig"/>
     <hyperlink ref="E7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PS_scripts/TestBrugerJonstrup.xlsx
+++ b/PS_scripts/TestBrugerJonstrup.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUFR_PowerShell\PS_scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\RUFR_PowerShell\PS_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11F8BEE-81FF-48D2-988C-0658FD2A8A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -167,12 +168,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,25 +388,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -431,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -441,20 +439,17 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>9999910</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F2">
-        <v>41273324</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -464,17 +459,15 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>9999911</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3">
-        <v>27548735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -484,17 +477,14 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>9999912</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
-        <v>42337760</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -504,17 +494,15 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>9999913</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3">
-        <v>21473142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -524,17 +512,15 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>9999914</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3">
-        <v>29849595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -544,17 +530,15 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>9999915</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3">
-        <v>42545426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -564,17 +548,15 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>9999916</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3">
-        <v>60516919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -584,21 +566,19 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>9999917</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3">
-        <v>53621809</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E4:E9" r:id="rId2" display="test@mail.sletmig"/>
-    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4:E9" r:id="rId2" display="test@mail.sletmig" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
